--- a/数学/C_高三年级（2017届）/yqs/高三（1）、（2）班数学测验成绩.xlsx
+++ b/数学/C_高三年级（2017届）/yqs/高三（1）、（2）班数学测验成绩.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="217">
   <si>
     <t>乔梓琪</t>
   </si>
@@ -1411,9 +1411,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>陈润欣</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>张瀚文</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1424,7 +1423,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>张瀚文</t>
+      <t>冯子柏</t>
     </r>
   </si>
   <si>
@@ -1436,9 +1435,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>夏睿哲</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>彭洪业</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1449,9 +1447,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>应卓凡</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>魏湘东</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1462,7 +1459,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>温柔</t>
+      <t>朱思蕾</t>
     </r>
   </si>
   <si>
@@ -1474,7 +1471,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>陈子威</t>
+      <t>许涵</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1487,7 +1484,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>张家源</t>
+      <t>张梓勍</t>
     </r>
   </si>
   <si>
@@ -1499,8 +1496,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>蔡烁玮</t>
-    </r>
+      <t>陈子威</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1511,7 +1509,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>郭云帆</t>
+      <t>颜楠</t>
     </r>
   </si>
   <si>
@@ -1523,9 +1521,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>李星毅</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>杨诗琪</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1536,8 +1533,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>琚理</t>
-    </r>
+      <t>陈润欣</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1548,7 +1546,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>谢天</t>
+      <t>李元彪</t>
     </r>
   </si>
   <si>
@@ -1560,7 +1558,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>江洋</t>
+      <t>王明业</t>
     </r>
   </si>
   <si>
@@ -1572,7 +1570,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>刘思玮</t>
+      <t>姚宽</t>
     </r>
   </si>
   <si>
@@ -1584,7 +1582,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>李睿杰</t>
+      <t>黄宇帆</t>
     </r>
   </si>
   <si>
@@ -1596,7 +1594,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>李文凯</t>
+      <t>赵思彤</t>
     </r>
   </si>
   <si>
@@ -1608,9 +1606,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>周少泽</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>唐帅华</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1621,7 +1618,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>冯子柏</t>
+      <t>肖越云</t>
     </r>
   </si>
   <si>
@@ -1633,7 +1630,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>彭洪业</t>
+      <t>刘蕙晔</t>
     </r>
   </si>
   <si>
@@ -1645,104 +1642,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>蒋国伟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秦敬轩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈昊东</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魏湘东</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>钱景卓</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叶健成</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>朱思蕾</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>曾向进</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>许涵</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1751,7 +1651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1858,6 +1758,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1873,7 +1797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1909,17 +1833,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1927,7 +1840,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2003,6 +1916,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2012,23 +1937,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2337,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2346,23 +2265,24 @@
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="6.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="11" customWidth="1"/>
-    <col min="4" max="14" width="5.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="11" customWidth="1"/>
+    <col min="5" max="14" width="5.625" style="11" customWidth="1"/>
     <col min="15" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
@@ -2371,10 +2291,12 @@
       <c r="B2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>42654</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="32">
+        <v>42668</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -2387,16 +2309,18 @@
       <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
-        <v>73</v>
+      <c r="A3" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C3" s="10">
-        <v>144</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="D3" s="12">
+        <v>139</v>
+      </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -2410,15 +2334,17 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C4" s="10">
-        <v>143</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="D4" s="12">
+        <v>135</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2432,15 +2358,17 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C5" s="10">
-        <v>139</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="D5" s="12">
+        <v>128</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -2454,15 +2382,17 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C6" s="10">
-        <v>139</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="D6" s="12">
+        <v>128</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2475,16 +2405,18 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
-        <v>70</v>
+      <c r="A7" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" s="10">
-        <v>138</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="D7" s="12">
+        <v>126</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -2497,16 +2429,18 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>80</v>
+      <c r="A8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C8" s="10">
-        <v>137</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="D8" s="12">
+        <v>126</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -2519,16 +2453,18 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10" t="s">
-        <v>49</v>
+      <c r="A9" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C9" s="10">
-        <v>134</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="D9" s="12">
+        <v>126</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2541,16 +2477,18 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="8" t="s">
-        <v>82</v>
+      <c r="A10" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C10" s="10">
-        <v>134</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="D10" s="12">
+        <v>124</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2563,16 +2501,18 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10" t="s">
-        <v>64</v>
+      <c r="A11" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="10">
-        <v>133</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="12">
+        <v>123</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2585,16 +2525,18 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="8" t="s">
-        <v>69</v>
+      <c r="A12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12" s="10">
-        <v>133</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="D12" s="12">
+        <v>121</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2607,16 +2549,18 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10" t="s">
-        <v>55</v>
+      <c r="A13" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C13" s="10">
-        <v>133</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="D13" s="12">
+        <v>121</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2630,15 +2574,17 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10">
-        <v>131</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="D14" s="12">
+        <v>121</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -2651,16 +2597,18 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="8" t="s">
-        <v>71</v>
+      <c r="A15" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C15" s="10">
-        <v>130</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="D15" s="12">
+        <v>120</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2673,16 +2621,18 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
-        <v>45</v>
+      <c r="A16" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C16" s="10">
-        <v>129</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="D16" s="12">
+        <v>120</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -2695,16 +2645,18 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="10" t="s">
-        <v>50</v>
+      <c r="A17" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="10">
-        <v>129</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D17" s="12">
+        <v>119</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -2717,16 +2669,18 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10" t="s">
-        <v>57</v>
+      <c r="A18" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C18" s="10">
-        <v>129</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="D18" s="12">
+        <v>119</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -2739,16 +2693,18 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
-        <v>67</v>
+      <c r="A19" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C19" s="10">
-        <v>128</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="D19" s="12">
+        <v>118</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -2761,16 +2717,18 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="10" t="s">
-        <v>63</v>
+      <c r="A20" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C20" s="10">
-        <v>128</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="D20" s="12">
+        <v>117</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -2783,16 +2741,18 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10" t="s">
-        <v>47</v>
+      <c r="A21" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C21" s="10">
-        <v>128</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="D21" s="12">
+        <v>116</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -2806,15 +2766,17 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C22" s="10">
-        <v>127</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D22" s="12">
+        <v>116</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -2828,15 +2790,17 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C23" s="10">
-        <v>126</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="D23" s="12">
+        <v>116</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2849,16 +2813,18 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
-        <v>74</v>
+      <c r="A24" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C24" s="10">
-        <v>126</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="D24" s="12">
+        <v>115</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -2872,15 +2838,17 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C25" s="10">
-        <v>126</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="D25" s="12">
+        <v>114</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -2893,16 +2861,18 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
-        <v>72</v>
+      <c r="A26" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C26" s="10">
-        <v>125</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="D26" s="12">
+        <v>114</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -2916,15 +2886,17 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C27" s="10">
         <v>125</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>113</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -2938,15 +2910,17 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C28" s="10">
-        <v>125</v>
-      </c>
-      <c r="D28" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D28" s="12">
+        <v>112</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -2959,16 +2933,18 @@
       <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="10" t="s">
-        <v>59</v>
+      <c r="A29" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C29" s="10">
-        <v>125</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D29" s="12">
+        <v>112</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -2981,16 +2957,18 @@
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="10" t="s">
-        <v>60</v>
+      <c r="A30" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C30" s="10">
-        <v>122</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="D30" s="12">
+        <v>111</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -3003,16 +2981,18 @@
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="10" t="s">
-        <v>54</v>
+      <c r="A31" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C31" s="10">
-        <v>120</v>
-      </c>
-      <c r="D31" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="D31" s="12">
+        <v>111</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3025,16 +3005,18 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
-        <v>85</v>
+      <c r="A32" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C32" s="10">
-        <v>120</v>
-      </c>
-      <c r="D32" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="D32" s="12">
+        <v>110</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -3048,15 +3030,17 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="10" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C33" s="10">
-        <v>119</v>
-      </c>
-      <c r="D33" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D33" s="12">
+        <v>109</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -3070,15 +3054,17 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C34" s="10">
-        <v>119</v>
-      </c>
-      <c r="D34" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="D34" s="12">
+        <v>106</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -3091,16 +3077,18 @@
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
-        <v>83</v>
+      <c r="A35" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C35" s="10">
-        <v>118</v>
-      </c>
-      <c r="D35" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="D35" s="12">
+        <v>105</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -3114,15 +3102,17 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C36" s="10">
-        <v>118</v>
-      </c>
-      <c r="D36" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="D36" s="12">
+        <v>102</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -3135,16 +3125,18 @@
       <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="10" t="s">
-        <v>58</v>
+      <c r="A37" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C37" s="10">
-        <v>118</v>
-      </c>
-      <c r="D37" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="D37" s="12">
+        <v>101</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3158,15 +3150,17 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C38" s="10">
-        <v>117</v>
-      </c>
-      <c r="D38" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="D38" s="12">
+        <v>101</v>
+      </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -3179,16 +3173,18 @@
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
-        <v>77</v>
+      <c r="A39" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C39" s="10">
-        <v>117</v>
-      </c>
-      <c r="D39" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="D39" s="12">
+        <v>101</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -3201,16 +3197,18 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="10" t="s">
-        <v>44</v>
+      <c r="A40" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C40" s="10">
-        <v>116</v>
-      </c>
-      <c r="D40" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="D40" s="12">
+        <v>100</v>
+      </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -3223,16 +3221,18 @@
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="10" t="s">
-        <v>56</v>
+      <c r="A41" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C41" s="10">
-        <v>114</v>
-      </c>
-      <c r="D41" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="D41" s="12">
+        <v>100</v>
+      </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -3245,16 +3245,18 @@
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
-        <v>68</v>
+      <c r="A42" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C42" s="10">
-        <v>104</v>
-      </c>
-      <c r="D42" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="D42" s="12">
+        <v>100</v>
+      </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -3276,7 +3278,9 @@
       <c r="C43" s="10">
         <v>100</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12">
+        <v>92</v>
+      </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -3289,16 +3293,18 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
-        <v>76</v>
+      <c r="A44" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C44" s="10">
-        <v>97</v>
-      </c>
-      <c r="D44" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="D44" s="12">
+        <v>87</v>
+      </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -3312,15 +3318,17 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C45" s="10">
-        <v>97</v>
-      </c>
-      <c r="D45" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="D45" s="12">
+        <v>84</v>
+      </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -3340,7 +3348,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:N45">
-    <sortCondition descending="1" ref="C3:C45"/>
+    <sortCondition descending="1" ref="D3:D45"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -3355,33 +3363,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="3" width="7.625" style="11" customWidth="1"/>
-    <col min="4" max="14" width="5.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7" style="11" customWidth="1"/>
+    <col min="5" max="14" width="5.625" style="11" customWidth="1"/>
     <col min="15" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
@@ -3390,10 +3399,12 @@
       <c r="B2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>42654</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="32">
+        <v>42668</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -3415,7 +3426,9 @@
       <c r="C3" s="13">
         <v>150</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>149</v>
+      </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -3429,15 +3442,17 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="13">
         <v>148</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>139</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3451,15 +3466,17 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="13">
-        <v>148</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="C5" s="10">
+        <v>131</v>
+      </c>
+      <c r="D5" s="12">
+        <v>137</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3472,16 +3489,18 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="17" t="s">
-        <v>93</v>
+      <c r="A6" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="13">
+        <v>145</v>
+      </c>
+      <c r="D6" s="12">
         <v>137</v>
       </c>
-      <c r="C6" s="13">
-        <v>148</v>
-      </c>
-      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3495,15 +3514,17 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="13">
-        <v>146</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="D7" s="12">
+        <v>135</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -3516,16 +3537,18 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="8" t="s">
-        <v>112</v>
+      <c r="A8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="10">
-        <v>145</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="D8" s="12">
+        <v>134</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -3537,17 +3560,19 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="13">
-        <v>145</v>
-      </c>
-      <c r="D9" s="12"/>
+    <row r="9" spans="1:14" ht="14.25">
+      <c r="A9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>129</v>
+      </c>
+      <c r="D9" s="12">
+        <v>133</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -3560,16 +3585,18 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
+      <c r="A10" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C10" s="13">
-        <v>145</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="D10" s="12">
+        <v>132</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -3583,15 +3610,17 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C11" s="13">
-        <v>144</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="D11" s="12">
+        <v>132</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3604,16 +3633,18 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10">
-        <v>142</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="13">
+        <v>139</v>
+      </c>
+      <c r="D12" s="12">
+        <v>132</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3626,16 +3657,18 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="13">
-        <v>142</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="A13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="10">
+        <v>135</v>
+      </c>
+      <c r="D13" s="12">
+        <v>130</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -3648,16 +3681,18 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="10">
-        <v>141</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="13">
+        <v>144</v>
+      </c>
+      <c r="D14" s="12">
+        <v>128</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3670,16 +3705,18 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="13">
-        <v>141</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10">
+        <v>142</v>
+      </c>
+      <c r="D15" s="12">
+        <v>127</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3692,16 +3729,18 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
-        <v>32</v>
+      <c r="A16" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C16" s="10">
-        <v>140</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="D16" s="12">
+        <v>127</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3714,16 +3753,18 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="A17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="13">
         <v>140</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>127</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3736,16 +3777,18 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="13">
-        <v>140</v>
-      </c>
-      <c r="D18" s="12"/>
+      <c r="A18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="10">
+        <v>141</v>
+      </c>
+      <c r="D18" s="12">
+        <v>126</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -3758,16 +3801,18 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>130</v>
+      <c r="A19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C19" s="13">
-        <v>140</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="D19" s="12">
+        <v>126</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3781,15 +3826,17 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C20" s="13">
-        <v>140</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D20" s="12">
+        <v>126</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3803,15 +3850,17 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C21" s="13">
-        <v>139</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="D21" s="12">
+        <v>126</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3825,15 +3874,17 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C22" s="13">
-        <v>138</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="D22" s="12">
+        <v>126</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3846,16 +3897,18 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>101</v>
+      <c r="A23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="C23" s="13">
-        <v>137</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="D23" s="12">
+        <v>125</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3868,16 +3921,18 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="13" t="s">
-        <v>27</v>
+      <c r="A24" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C24" s="13">
-        <v>137</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="D24" s="12">
+        <v>125</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3890,16 +3945,18 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>104</v>
+      <c r="A25" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C25" s="13">
-        <v>136</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="D25" s="12">
+        <v>125</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -3912,16 +3969,18 @@
       <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>107</v>
+      <c r="A26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C26" s="13">
-        <v>136</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="D26" s="12">
+        <v>125</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3934,16 +3993,18 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="8" t="s">
-        <v>108</v>
+      <c r="A27" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" s="10">
-        <v>135</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="D27" s="12">
+        <v>124</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3965,7 +4026,9 @@
       <c r="C28" s="10">
         <v>135</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>124</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -3987,7 +4050,9 @@
       <c r="C29" s="13">
         <v>135</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>124</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -4001,15 +4066,17 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C30" s="13">
-        <v>135</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="D30" s="12">
+        <v>124</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -4022,16 +4089,18 @@
       <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="10">
-        <v>134</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="A31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="13">
+        <v>145</v>
+      </c>
+      <c r="D31" s="12">
+        <v>124</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -4044,16 +4113,18 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="10">
-        <v>133</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="A32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="13">
+        <v>122</v>
+      </c>
+      <c r="D32" s="12">
+        <v>124</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -4067,15 +4138,17 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="13">
-        <v>133</v>
-      </c>
-      <c r="D33" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="D33" s="12">
+        <v>123</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -4088,16 +4161,18 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="10">
-        <v>131</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="A34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="13">
+        <v>141</v>
+      </c>
+      <c r="D34" s="12">
+        <v>123</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -4111,15 +4186,17 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C35" s="13">
-        <v>131</v>
-      </c>
-      <c r="D35" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="D35" s="12">
+        <v>123</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -4132,16 +4209,18 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="13">
-        <v>130</v>
-      </c>
-      <c r="D36" s="12"/>
+      <c r="A36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="10">
+        <v>140</v>
+      </c>
+      <c r="D36" s="12">
+        <v>121</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -4153,17 +4232,19 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" ht="14.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10">
-        <v>129</v>
-      </c>
-      <c r="D37" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="13">
+        <v>136</v>
+      </c>
+      <c r="D37" s="12">
+        <v>121</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -4176,16 +4257,18 @@
       <c r="N37" s="12"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="10">
-        <v>129</v>
-      </c>
-      <c r="D38" s="12"/>
+      <c r="A38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="13">
+        <v>124</v>
+      </c>
+      <c r="D38" s="12">
+        <v>121</v>
+      </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -4198,16 +4281,18 @@
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="10" t="s">
-        <v>38</v>
+      <c r="A39" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C39" s="13">
-        <v>128</v>
-      </c>
-      <c r="D39" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="D39" s="12">
+        <v>121</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -4220,16 +4305,18 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="13">
-        <v>128</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="A40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="10">
+        <v>140</v>
+      </c>
+      <c r="D40" s="12">
+        <v>119</v>
+      </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -4242,16 +4329,18 @@
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="17" t="s">
-        <v>95</v>
+      <c r="A41" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C41" s="13">
         <v>128</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12">
+        <v>117</v>
+      </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -4264,16 +4353,18 @@
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="13" t="s">
-        <v>17</v>
+      <c r="A42" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C42" s="13">
-        <v>126</v>
-      </c>
-      <c r="D42" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="D42" s="12">
+        <v>117</v>
+      </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -4286,16 +4377,18 @@
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>128</v>
+      <c r="A43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C43" s="13">
-        <v>124</v>
-      </c>
-      <c r="D43" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="D43" s="12">
+        <v>114</v>
+      </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -4308,16 +4401,18 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="13" t="s">
-        <v>23</v>
+      <c r="A44" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="13">
-        <v>124</v>
-      </c>
-      <c r="D44" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="C44" s="10">
+        <v>107</v>
+      </c>
+      <c r="D44" s="12">
+        <v>113</v>
+      </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -4330,16 +4425,18 @@
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="17" t="s">
-        <v>94</v>
+      <c r="A45" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C45" s="13">
-        <v>122</v>
-      </c>
-      <c r="D45" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="D45" s="12">
+        <v>109</v>
+      </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -4352,16 +4449,18 @@
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>110</v>
+      <c r="A46" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="13">
-        <v>116</v>
-      </c>
-      <c r="D46" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="C46" s="10">
+        <v>134</v>
+      </c>
+      <c r="D46" s="12">
+        <v>107</v>
+      </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -4374,16 +4473,18 @@
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="13">
         <v>116</v>
       </c>
-      <c r="C47" s="10">
-        <v>107</v>
-      </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="12">
+        <v>102</v>
+      </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -4403,7 +4504,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:N47">
-    <sortCondition descending="1" ref="C3:C47"/>
+    <sortCondition descending="1" ref="D3:D47"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -4416,17 +4517,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4451,124 +4552,135 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="36.75">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="33">
+        <v>139</v>
+      </c>
+      <c r="C3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.75">
+      <c r="A4" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="33">
+        <v>135</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.75">
+      <c r="A5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="33">
+        <v>128</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.75">
+      <c r="A6" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="33">
+        <v>128</v>
+      </c>
+      <c r="C6" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.75">
+      <c r="A7" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="33">
+        <v>126</v>
+      </c>
+      <c r="C7" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36.75">
+      <c r="A8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="33">
+        <v>126</v>
+      </c>
+      <c r="C8" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.75">
+      <c r="A9" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="33">
+        <v>126</v>
+      </c>
+      <c r="C9" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36.75">
+      <c r="A10" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="33">
+        <v>124</v>
+      </c>
+      <c r="C10" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.75">
+      <c r="A11" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="31">
-        <v>144</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="36.75">
-      <c r="A4" s="33" t="s">
+      <c r="B11" s="33">
+        <v>123</v>
+      </c>
+      <c r="C11" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36.75">
+      <c r="A12" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="31">
-        <v>143</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36.75">
-      <c r="A5" s="33" t="s">
+      <c r="B12" s="33">
+        <v>121</v>
+      </c>
+      <c r="C12" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36.75">
+      <c r="A13" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="33">
+        <v>121</v>
+      </c>
+      <c r="C13" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36.75">
+      <c r="A14" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="31">
-        <v>139</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36.75">
-      <c r="A6" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="31">
-        <v>139</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36.75">
-      <c r="A7" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="31">
-        <v>138</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="36.75">
-      <c r="A8" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="31">
-        <v>137</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36.75">
-      <c r="A9" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="31">
-        <v>134</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36.75">
-      <c r="A10" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="31">
-        <v>134</v>
-      </c>
-      <c r="C10" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="36.75">
-      <c r="A11" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="31">
-        <v>133</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36.75">
-      <c r="A12" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="31">
-        <v>133</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="36.75">
-      <c r="A13" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="31">
-        <v>133</v>
-      </c>
-      <c r="C13" s="29">
-        <v>9</v>
+      <c r="B14" s="33">
+        <v>121</v>
+      </c>
+      <c r="C14" s="35">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4580,10 +4692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4615,212 +4727,124 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="36.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="30">
-        <v>150</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="33">
+        <v>149</v>
+      </c>
+      <c r="C3" s="35">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="36.75">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="30">
-        <v>148</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="33">
+        <v>139</v>
+      </c>
+      <c r="C4" s="35">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="36.75">
-      <c r="A5" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="30">
-        <v>148</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
+      <c r="A5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="33">
+        <v>137</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="36.75">
-      <c r="A6" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="30">
-        <v>148</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
+      <c r="A6" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="33">
+        <v>137</v>
+      </c>
+      <c r="C6" s="35">
+        <v>3</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="36.75">
-      <c r="A7" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="30">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="33">
+        <v>135</v>
+      </c>
+      <c r="C7" s="35">
         <v>5</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="36.75">
-      <c r="A8" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="31">
-        <v>145</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="A8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="33">
+        <v>134</v>
+      </c>
+      <c r="C8" s="35">
         <v>6</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="36.75">
-      <c r="A9" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="30">
-        <v>145</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6</v>
+    <row r="9" spans="1:4" ht="35.25">
+      <c r="A9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="33">
+        <v>133</v>
+      </c>
+      <c r="C9" s="35">
+        <v>7</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="36.75">
-      <c r="A10" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="30">
-        <v>145</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
+      <c r="A10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="33">
+        <v>132</v>
+      </c>
+      <c r="C10" s="35">
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="36.75">
-      <c r="A11" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="30">
-        <v>144</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9</v>
+      <c r="A11" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="33">
+        <v>132</v>
+      </c>
+      <c r="C11" s="35">
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="36.75">
-      <c r="A12" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="31">
-        <v>142</v>
-      </c>
-      <c r="C12" s="4">
-        <v>10</v>
+      <c r="A12" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="33">
+        <v>132</v>
+      </c>
+      <c r="C12" s="35">
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="36.75">
-      <c r="A13" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="30">
-        <v>142</v>
-      </c>
-      <c r="C13" s="29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36.75">
-      <c r="A14" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="31">
-        <v>141</v>
-      </c>
-      <c r="C14" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="35.25">
-      <c r="A15" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="30">
-        <v>141</v>
-      </c>
-      <c r="C15" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36.75">
-      <c r="A16" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="31">
-        <v>140</v>
-      </c>
-      <c r="C16" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="36.75">
-      <c r="A17" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="31">
-        <v>140</v>
-      </c>
-      <c r="C17" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36.75">
-      <c r="A18" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="30">
-        <v>140</v>
-      </c>
-      <c r="C18" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36.75">
-      <c r="A19" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="30">
-        <v>140</v>
-      </c>
-      <c r="C19" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36.75">
-      <c r="A20" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="30">
-        <v>140</v>
-      </c>
-      <c r="C20" s="29">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4843,14 +4867,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
